--- a/Windows/powershell/WpgFitter/Run注意事項.xlsx
+++ b/Windows/powershell/WpgFitter/Run注意事項.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Scripts_APLxy\Windows\powershell\WpgFitter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\zyh\Scripts_APLxy\Windows\powershell\WpgFitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9817351E-2BA2-43AC-AA5C-13CC3D088FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52048CB-1CE1-4E67-8461-B513F6E58E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="run" sheetId="1" r:id="rId1"/>
     <sheet name="右键  管理员身份运行 powershell" sheetId="4" r:id="rId2"/>
     <sheet name="relative path" sheetId="2" r:id="rId3"/>
     <sheet name="Absolute Path" sheetId="3" r:id="rId4"/>
+    <sheet name="executionpolicy" sheetId="7" r:id="rId5"/>
+    <sheet name="disable cmd" sheetId="5" r:id="rId6"/>
+    <sheet name="win7 ds cmd" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <r>
       <rPr>
@@ -123,6 +126,1815 @@
       </rPr>
       <t>错误</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    win10 regedit disable cmd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CMD禁用和手动解除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://blog.51cto.com/exproot/696640</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>一。通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>修改注册表，可以禁止用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用命令解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>释</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器（CMD.exe）和运行批</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">理文件（BAT文件）。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入到注册表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HKEY_CURRENT_USERSoftwarePoliciesMicrosoftWindowsSystem中，新建一个双字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DisableCMD，修改其</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命令解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>释</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器和批</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理文件都不能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>够</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>被运行。如果只是禁止命令解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>释</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器的运行，而运行批</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理文件的运行，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>修改DisableCMD的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1。 有思路了！1，2都是禁止，那么0是什么呢？当然是没有限制啦，把下面内容保存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reg文件，双</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>就可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注册表的具体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>键进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">行修改了 REGEDIT4 [HKEY_CURRENT_USERSoftwarePoliciesMicrosoftWindowsSystem] "DisableCMD"=dword:00000000 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>明：reg文件的格式,REGEDIT4开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>头顶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>格，[]是注册表的具体路径，""是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>名，dword是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>型，00000000 是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，明白了把：）倒入成功，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在可以用了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>二。开始--运行---gpedit.msc---用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配置---管理模板---系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在右</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>侧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>找到"阻止命令提示符", 然后双</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一下,在"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>置"里面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中"未配置" ,最后点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"确定"cmd被禁用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>你先打开一个网站，右</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>源文件 出来一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事本，把里面的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>西都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了，再写上call cmd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>再另存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*.bat 写好后存到桌面，，注意，那个文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>型 一定要是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全部文件，要不你在网吧存下的就会是*.bat.txt了，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事本</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个bat文件存在桌面，双</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>就可以打开了。</t>
+    </r>
+  </si>
+  <si>
+    <t>解除方法：前提是有运行的噢</t>
+  </si>
+  <si>
+    <t>１.[HKEY_CURRENT_USER\Software\Policies\Microsoft\Windows\System\DisableCMD]</t>
+  </si>
+  <si>
+    <r>
+      <t>背景：“命令提示符已被系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>停用”很多病毒就是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>禁用 CMD 的。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>用法：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> REG_DWORD 的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>         当没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，CMD 能用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>         当数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> 1 或 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，打开 CMD 就会提示“命令提示符已被系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>停用”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>         其数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>其他数字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，CMD 也可用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>解决：在注册表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编辑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器（regedit.exe）找到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，把它</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>掉即可</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>         命令行：reg delete "HKEY_CURRENT_USER\Software\Policies\Microsoft\Windows\System" /v "DisableCMD" /f（当然啦，你的 CMD 既然被影像劫持，又怎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>打开 CMD 呢？在“运行”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入此命令即可）</t>
+    </r>
+  </si>
+  <si>
+    <t>２.[HKEY_LOCAL_MACHINE\Software\Microsoft\Command Processor\AutoRun]</t>
+  </si>
+  <si>
+    <t>[HKEY_CURRENT_USER\Software\Microsoft\Command Processor\AutoRun]</t>
+  </si>
+  <si>
+    <t>https://winbuzzer.com/2021/04/28/how-to-disable-command-prompt-via-group-policy-in-windows-10-xcxwbt/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>How to Disable Command Prompt (CMD) in Windows 10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>We show you how to quickly disable Command Prompt in Windows 10 via GPO and the Registry Editor.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is useful for keeping users from bypassing other blocks you have in place.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Today we’re going to show you how to stop Command Prompt from working using both methods. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">However, it’s worth pointing out that we only really recommend using the Registry if you don’t have access to the Group Policy tool. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The Group Policy editor is just simpler and safer.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>How to Disable Command Prompt via Group Policy (gpedit)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gpedit is a favorite tool of admins when comes to blocking applications, and Command Prompt is no exception.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A few clicks is all it takes to turn off CMD in Windows 10.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.Open the Group Policy Editor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Press “Start” and then type “gpedit.msc”. Click the top result.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.Open the ‘System’ folder and double-click ‘Prevent access to the command prompt’</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You’ll find the System folder under User Configuration &gt; Administrative Templates.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.Enable and save the group policy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In the “Prevent access to the command prompt” policy, tick “Enabled”.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You then have a choice: you can choose whether or not you want to disable the command script processing also. Turning this on will stop users from running batch files.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Make your choice, then click “OK” and “Apply”.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If you’re wondering how to unblock Command Prompt in the future, simply switch the policy from “Enabled” to “Disabled” or “Not Configured”.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>How to deactivate CMD via Registry Editor (regedit)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you don’t have the Group Policy Editor because you’re on Windows 10 Home, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>you can still disable Command Prompt using your registry.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Just make sure you have a quick read of our safe registry editing guide first.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.Open Registry Editor (regedit)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Press Start and then type “Registry Editor” or “regedit”. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click the top result.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.Create a new registry Key in the Windows Policies folder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Browse to HKEY_CURRENT_USER\Software\Policies\Microsoft\Windows ,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">right-click in the main pane, and select “New &gt; Key”. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name the key “System”.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.Create a New DWORD inside your System key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Navigate to your new System key and right-click in the main pane.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Choose “New &gt; DWORD (32-bit) Value”.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name the DWORD “DisableCMD”.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.Change the Value data to your preference and click ‘OK’</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A value data of 1 to deactivate CMD and batch files, and a value data of 2 to disable CMD while still allowing the execution of batch files. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Choose whichever makes the most sense to you and press “OK”.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Make sure you test Command Prompt to ensure it has been fully disabled.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If it has, you should get the message “The command prompt has been disabled by your administrator.  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Press any key to continue…”.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Now you know how to disable Command Prompt in Windows 10,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> you may want to further lock down your system. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You can follow our guide to disable PowerShell, or restrict the user to a single app by activating kiosk mode.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修改注册表 禁止cmd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このシステムではスクリプトの実行が無効になっているため、ファイルを読み込むことができません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://gocean.jp/windows/executionpolicy/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行ポリシーを確認する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンドプロンプトを起動し、下記コマンドを入力します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PowerShell Get-ExecutionPolicy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここで「Restricted」が表示された場合は初期設定ですべてのスクリプトの実行が制限されているため、実行ポリシーを変更します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行ポリシーを変更する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンドプロンプトを管理者権限で起動します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記コマンドを入力します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PowerShell Set-ExecutionPolicy RemoteSigned</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行ポリシー再確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.で入力したコマンドを実行し、実行ポリシーを確認します</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行ポリシーが「RemoteSigned」に変更されていることを確認します</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行ポリシーの種類</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコープの種類</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まとめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行ポリシーをRestrictedからRemoteSignedに変更することでセキュリティリスクは高まりますが、エラーは発生しなくなります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティ面を考慮するとスコープとの組み合わせをしたコマンドを発行するか実行ポリシー変更後に毎回もとに戻した方がいいでしょう。(Restricted⇔RemoteSigned)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例) 現在のプロセスのみコマンドを許可する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set-ExecutionPolicy -ExecutionPolicy RemoteSigned -Scope Process</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -130,7 +1942,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +1979,36 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,15 +2027,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -657,6 +2503,931 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>141249</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86F0480E-3C8B-486B-B189-174731DDC0D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847725" y="352425"/>
+          <a:ext cx="13009524" cy="2457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>418418</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E56E8C-4A7E-749B-D2D5-B10D1F3B2A6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="3657600"/>
+          <a:ext cx="5457143" cy="3419475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>351906</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57007</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98394449-953A-029E-6389-CA7FDD1046B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2371725" y="8201025"/>
+          <a:ext cx="4152381" cy="1142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>46782</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{612ACC70-D94B-DAA8-4828-B1676CABAF70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2219325" y="10515600"/>
+          <a:ext cx="6742857" cy="1504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409021</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>228435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CB8D6F8-08BD-C3AA-27CB-70AD6F764D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152650" y="13430250"/>
+          <a:ext cx="4428571" cy="1323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>46802</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>218376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97746D49-3564-B8D6-7212-D1A429B4977F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1695450" y="16059150"/>
+          <a:ext cx="6580952" cy="5590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>37281</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>113850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{938CCA85-92AD-1181-6442-04B9BABF1432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="21755100"/>
+          <a:ext cx="6552381" cy="3600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>46807</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>161681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{054A2822-FEDE-07F4-15A5-58D65E2A4805}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="26069925"/>
+          <a:ext cx="6542857" cy="1952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5121" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26BBFA9-98FD-1C14-34DE-75B926A420D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2743200" y="8115300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371338</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F7ABC8-07ED-75F2-AB5D-0B77059E40F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2428738" y="7496175"/>
+          <a:ext cx="11934961" cy="9886950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB4DD91B-7C34-9401-A807-21D3180F8337}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2505075" y="18202275"/>
+          <a:ext cx="14906625" cy="11220450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B725C8-A03A-786C-2D68-4CC4AE3B44DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2476500" y="31022925"/>
+          <a:ext cx="13735050" cy="13335000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>417474</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>8792</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1F1A71-7922-1561-D384-3C28FDC9D234}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2495550" y="44643675"/>
+          <a:ext cx="13009524" cy="5866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>417474</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>46796</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA400F14-7D73-13E6-3EAF-52F3EC7F370A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2495550" y="50825400"/>
+          <a:ext cx="13009524" cy="6628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F9F755-912F-45D7-32D0-2BAAFE1E5C3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2990850" y="59864625"/>
+          <a:ext cx="16087725" cy="13439775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D46F8A48-FA69-A46A-CA52-0A10B24E8CEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3143250" y="74637900"/>
+          <a:ext cx="11782425" cy="9382125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>345</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>384</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3448DCF6-F314-8A32-D369-03DAF57532A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3152775" y="85334475"/>
+          <a:ext cx="11972925" cy="9334500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>433</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B54EEFD-129A-1253-21E4-2E4486131843}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2962275" y="96793050"/>
+          <a:ext cx="11791950" cy="9486900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -922,9 +3693,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
@@ -956,7 +3727,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -972,7 +3743,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -988,10 +3759,489 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212D717F-F90B-49CB-A498-11CD2A516860}">
+  <dimension ref="B14:D126"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="D34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="D53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="C56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="D64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="C121" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4">
+      <c r="C123" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4">
+      <c r="C125" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4">
+      <c r="D126" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C15" r:id="rId1" xr:uid="{774AEF2B-D6B6-4564-A77D-7413AFD72648}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E33063B-4323-4EC0-85DC-2D97C517818D}">
+  <dimension ref="B2:F438"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="20.25">
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="C62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4">
+      <c r="D63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4">
+      <c r="C113" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4">
+      <c r="D114" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4">
+      <c r="D115" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4">
+      <c r="D116" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4">
+      <c r="D117" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="231" spans="3:5">
+      <c r="C231" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="232" spans="3:5">
+      <c r="D232" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="233" spans="3:5">
+      <c r="E233" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="234" spans="3:5">
+      <c r="D234" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="236" spans="3:5">
+      <c r="D236" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="237" spans="3:5">
+      <c r="E237" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="238" spans="3:5">
+      <c r="E238" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="297" spans="4:5">
+      <c r="D297" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="298" spans="4:5">
+      <c r="E298" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="299" spans="4:5">
+      <c r="E299" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="300" spans="4:5">
+      <c r="E300" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="342" spans="4:5">
+      <c r="D342" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="343" spans="4:5">
+      <c r="E343" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="344" spans="4:5">
+      <c r="E344" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="345" spans="4:5">
+      <c r="E345" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="387" spans="4:5">
+      <c r="D387" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="388" spans="4:5">
+      <c r="E388" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="389" spans="4:5">
+      <c r="E389" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="391" spans="4:5">
+      <c r="E391" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="392" spans="4:5">
+      <c r="E392" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="393" spans="4:5">
+      <c r="E393" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="436" spans="4:5">
+      <c r="D436" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="437" spans="4:5">
+      <c r="E437" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="438" spans="4:5">
+      <c r="E438" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{10FB37ED-CBEA-44FC-A87A-B07E445CF32B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141E1F29-7F4E-4E3B-82C8-755FAD2270A5}">
+  <dimension ref="B2:C29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{90345EA5-3B27-4043-A38D-EEF00601ED66}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>